--- a/Doc/3.项目规划/李占伟/工作包顺序.xlsx
+++ b/Doc/3.项目规划/李占伟/工作包顺序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <t>执行与监控</t>
   </si>
   <si>
-    <t>25个工作日</t>
+    <t>39个工作日</t>
   </si>
   <si>
     <t>组建项目团队</t>
@@ -1264,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E67"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2019,7 +2019,7 @@
         <v>44877</v>
       </c>
       <c r="E39" s="4">
-        <v>44901</v>
+        <v>44917</v>
       </c>
       <c r="F39" s="5"/>
     </row>

--- a/Doc/3.项目规划/李占伟/工作包顺序.xlsx
+++ b/Doc/3.项目规划/李占伟/工作包顺序.xlsx
@@ -41,6 +41,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -58,6 +64,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -72,6 +84,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -86,6 +104,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -103,6 +127,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -123,6 +153,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -138,6 +175,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -152,6 +195,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -169,6 +218,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -183,6 +238,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -197,6 +258,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -214,6 +281,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -228,6 +301,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -246,6 +326,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -260,6 +346,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -274,6 +366,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -288,6 +386,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -305,6 +409,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -319,6 +429,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -334,6 +451,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -348,6 +471,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -365,6 +494,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -380,6 +516,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -394,6 +536,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -408,6 +556,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -423,6 +578,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -437,6 +598,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -451,6 +618,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -466,6 +640,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -480,6 +660,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -495,6 +682,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -512,6 +705,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -526,6 +725,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -543,6 +748,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -560,6 +771,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -574,6 +791,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -592,6 +816,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -607,6 +838,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">         </t>
     </r>
     <r>
@@ -621,6 +858,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">         </t>
     </r>
     <r>
@@ -635,6 +878,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">         </t>
     </r>
     <r>
@@ -649,6 +898,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">         </t>
     </r>
     <r>
@@ -663,6 +918,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">         </t>
     </r>
     <r>
@@ -677,6 +938,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -692,6 +960,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -706,6 +980,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -720,6 +1000,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -734,6 +1020,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -748,6 +1040,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -763,6 +1062,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -777,6 +1082,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -791,6 +1102,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -805,6 +1122,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -820,6 +1144,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -834,6 +1164,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -848,6 +1184,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -862,6 +1204,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -879,6 +1227,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -893,6 +1247,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -1940,8 +2300,8 @@
   <sheetPr/>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2522,10 +2882,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="9">
-        <v>44851</v>
+        <v>44882</v>
       </c>
       <c r="E31" s="9">
-        <v>44851</v>
+        <v>44882</v>
       </c>
       <c r="F31" s="10">
         <v>18</v>
@@ -2542,10 +2902,10 @@
         <v>9</v>
       </c>
       <c r="D32" s="9">
-        <v>44851</v>
+        <v>44882</v>
       </c>
       <c r="E32" s="9">
-        <v>44851</v>
+        <v>44882</v>
       </c>
       <c r="F32" s="7"/>
     </row>
